--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a013127741b692/Pulpit/Python-pogoda-lipiec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3F059534B57F350424B887440B5F6C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE36FC7B-0217-4B03-9CAF-4DEB2E4CAD65}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3B0DED1E8CA01D04BCA887045DDE7A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8A1C8E9-AE02-4CA4-8696-E6DF7724ADB4}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Odczuwalna</t>
   </si>
@@ -120,7 +120,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F009EBFB-1469-47BF-82E6-E2AD6A49C602}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9D371800-1ED0-4CA9-8E20-4A5900476563}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,319 @@
         <v>4.63</v>
       </c>
       <c r="H4" s="2">
-        <v>45846.982568885338</v>
+        <v>45846.982568888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>296.99</v>
+      </c>
+      <c r="B5">
+        <v>1016</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>5.66</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45847.784191481478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>296.99</v>
+      </c>
+      <c r="B6">
+        <v>1016</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>5.66</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45847.784209143523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>296.99</v>
+      </c>
+      <c r="B7">
+        <v>1016</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>5.66</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45847.784326851863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>296.99</v>
+      </c>
+      <c r="B8">
+        <v>1016</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>5.66</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45847.784444583333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>296.99</v>
+      </c>
+      <c r="B9">
+        <v>1016</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>5.66</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45847.784562476852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>296.99</v>
+      </c>
+      <c r="B10">
+        <v>1016</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>5.66</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45847.784680196761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>296.99</v>
+      </c>
+      <c r="B11">
+        <v>1016</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>5.66</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45847.784797638888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>296.99</v>
+      </c>
+      <c r="B12">
+        <v>1016</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>5.66</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45847.784915081022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>296.99</v>
+      </c>
+      <c r="B13">
+        <v>1016</v>
+      </c>
+      <c r="C13">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>5.66</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45847.785032418979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>296.99</v>
+      </c>
+      <c r="B14">
+        <v>1016</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>5.66</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45847.785149849537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>296.99</v>
+      </c>
+      <c r="B15">
+        <v>1016</v>
+      </c>
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>5.66</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45847.785267060193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>296.99</v>
+      </c>
+      <c r="B16">
+        <v>1016</v>
+      </c>
+      <c r="C16">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>297.02999999999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>5.66</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45847.785384442592</v>
       </c>
     </row>
   </sheetData>

--- a/dane_pogodowe.xlsx
+++ b/dane_pogodowe.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
       <c r="I1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Zwykła temperatura</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Prędkość wiatru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -512,6 +522,8 @@
         <v>45846.98116655093</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -543,6 +555,8 @@
         <v>45846.98245108796</v>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -574,6 +588,8 @@
         <v>45846.98256888889</v>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -605,6 +621,8 @@
         <v>45847.78419148148</v>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -636,6 +654,8 @@
         <v>45847.78420914352</v>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -667,6 +687,8 @@
         <v>45847.78432685186</v>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -698,6 +720,8 @@
         <v>45847.78444458333</v>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -729,6 +753,8 @@
         <v>45847.78456247685</v>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -760,6 +786,8 @@
         <v>45847.78468019676</v>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -791,6 +819,8 @@
         <v>45847.78479763889</v>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -822,6 +852,8 @@
         <v>45847.78491508102</v>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -853,6 +885,8 @@
         <v>45847.78503241898</v>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -884,6 +918,8 @@
         <v>45847.78514984954</v>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -915,6 +951,8 @@
         <v>45847.78526706019</v>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -946,6 +984,8 @@
         <v>45847.78538444445</v>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -977,6 +1017,8 @@
         <v>45847.8271265625</v>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1050,8 @@
         <v>45847.82714219907</v>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1039,6 +1083,8 @@
         <v>45847.82726042824</v>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1067,9 +1113,1430 @@
         <v>16.67</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45847.82737938597</v>
+        <v>45847.82737938657</v>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C21" t="n">
+        <v>59</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45847.82749769676</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C22" t="n">
+        <v>59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45847.82761605324</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C23" t="n">
+        <v>59</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45847.82773444444</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C24" t="n">
+        <v>59</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45847.82785528935</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C25" t="n">
+        <v>59</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45847.82797386574</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C26" t="n">
+        <v>59</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45847.82809519676</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C27" t="n">
+        <v>59</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45847.82821506944</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" s="2" t="n">
+        <v>45855.72554071759</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C29" t="n">
+        <v>35</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" s="2" t="n">
+        <v>45855.72557328704</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C30" t="n">
+        <v>35</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" s="2" t="n">
+        <v>45855.72569815972</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K30" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" s="2" t="n">
+        <v>45855.72581918981</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K31" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C32" t="n">
+        <v>35</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" s="2" t="n">
+        <v>45855.72594244213</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K32" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" s="2" t="n">
+        <v>45855.72606034722</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K33" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C34" t="n">
+        <v>35</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" s="2" t="n">
+        <v>45855.72617826389</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K34" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" s="2" t="n">
+        <v>45855.72629649306</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K35" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" s="2" t="n">
+        <v>45855.72641416667</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" s="2" t="n">
+        <v>45855.72653208333</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K37" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" s="2" t="n">
+        <v>45855.72665136574</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="K38" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C39" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" s="2" t="n">
+        <v>45855.72677016204</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K39" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" s="2" t="n">
+        <v>45855.72688846065</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K40" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" s="2" t="n">
+        <v>45855.72700702546</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K41" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C42" t="n">
+        <v>36</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" s="2" t="n">
+        <v>45855.7271253125</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K42" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C43" t="n">
+        <v>36</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" s="2" t="n">
+        <v>45855.7272434375</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K43" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C44" t="n">
+        <v>36</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" s="2" t="n">
+        <v>45855.72736163194</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K44" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C45" t="n">
+        <v>36</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" s="2" t="n">
+        <v>45855.7274796412</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K45" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C46" t="n">
+        <v>36</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" s="2" t="n">
+        <v>45855.72759762732</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C47" t="n">
+        <v>36</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" s="2" t="n">
+        <v>45855.72771576389</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K47" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C48" t="n">
+        <v>36</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" s="2" t="n">
+        <v>45855.72783391204</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K48" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C49" t="n">
+        <v>36</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" s="2" t="n">
+        <v>45855.727955</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K49" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C50" t="n">
+        <v>36</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" s="2" t="n">
+        <v>45855.72807341435</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C51" t="n">
+        <v>36</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" s="2" t="n">
+        <v>45855.72819246528</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K51" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C52" t="n">
+        <v>36</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" s="2" t="n">
+        <v>45855.72831054398</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K52" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C53" t="n">
+        <v>36</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" s="2" t="n">
+        <v>45855.728429375</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K53" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C54" t="n">
+        <v>36</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" s="2" t="n">
+        <v>45855.72854747685</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K54" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C55" t="n">
+        <v>36</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" s="2" t="n">
+        <v>45855.72866540509</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C56" t="n">
+        <v>36</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" s="2" t="n">
+        <v>45855.72878395834</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K56" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C57" t="n">
+        <v>36</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" s="2" t="n">
+        <v>45855.72890212963</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K57" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C58" t="n">
+        <v>36</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" s="2" t="n">
+        <v>45855.72902027778</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K58" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C59" t="n">
+        <v>36</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" s="2" t="n">
+        <v>45855.72913855324</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K59" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C60" t="n">
+        <v>36</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" s="2" t="n">
+        <v>45855.72925670139</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C61" t="n">
+        <v>36</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" s="2" t="n">
+        <v>45855.72937494213</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K61" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C62" t="n">
+        <v>36</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" s="2" t="n">
+        <v>45855.72949333333</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K62" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C63" t="n">
+        <v>36</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" s="2" t="n">
+        <v>45855.72961172261</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="K63" t="n">
+        <v>29.63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
